--- a/public_listas/Tevelam_ULTIMA.xlsx
+++ b/public_listas/Tevelam_ULTIMA.xlsx
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="B1182" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183">
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="B1183" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184">
@@ -17429,7 +17429,7 @@
         </is>
       </c>
       <c r="B1700" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1701">
@@ -17439,7 +17439,7 @@
         </is>
       </c>
       <c r="B1701" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1702">
